--- a/3-能力管理/运行记录类文件/YNTD-ITSS-0305-2025年1-10月运维服务能力改进计划及跟踪.xlsx
+++ b/3-能力管理/运行记录类文件/YNTD-ITSS-0305-2025年1-10月运维服务能力改进计划及跟踪.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>2025年1-10月运维服务能力改进计划及跟踪</t>
   </si>
@@ -117,6 +117,23 @@
   </si>
   <si>
     <t>进行中</t>
+  </si>
+  <si>
+    <t>满意度调查</t>
+  </si>
+  <si>
+    <t>满意度调查-调查项</t>
+  </si>
+  <si>
+    <t>定期巡检得分较低
+运维服务过程针对培训效果的评估有待改进</t>
+  </si>
+  <si>
+    <t>加强对运维服务专业人员专业知识的培训，强化定期巡检意识；
+针对运维服务过程发起的培训工作，加强培训效果评价工作。</t>
+  </si>
+  <si>
+    <t>质量部</t>
   </si>
 </sst>
 </file>
@@ -489,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -507,69 +524,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -685,20 +639,20 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
@@ -733,7 +687,7 @@
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -744,28 +698,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1120,13 +1063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="20.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="20.8888888888889" customWidth="1"/>
@@ -1159,28 +1102,28 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1" spans="1:11">
       <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1163,7 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1241,33 +1184,66 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" ht="28.8" spans="1:11">
-      <c r="B5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" ht="86.4" spans="1:11">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
